--- a/806209426/localisation/excel/dod_events_l_german.xlsx
+++ b/806209426/localisation/excel/dod_events_l_german.xlsx
@@ -3848,7 +3848,7 @@
     <t xml:space="preserve"> DOD_yugoslavia.1.a.tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YPeter II.§! wird Anführer der §Y[YUG.GetIdeologyNameWithCaps]en§! Partei.\n</t>
+    <t xml:space="preserve">§Y§Y Peter II. §!§!  wird Anführer der §Y§Y [YUG.GetIdeologyNameWithCaps]en §!§!  Partei.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> DOD_yugoslavia.1.b:</t>
@@ -5198,25 +5198,25 @@
     <t xml:space="preserve"> strongest_claimant_ROM:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YRumänien§! hat den stärksten Anspruch</t>
+    <t xml:space="preserve">§Y§Y Rumänien §!§!  hat den stärksten Anspruch</t>
   </si>
   <si>
     <t xml:space="preserve"> strongest_claimant_GER:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YDeutschland§! hat den stärksten Anspruch</t>
+    <t xml:space="preserve">§Y§Y Deutschland §!§!  hat den stärksten Anspruch</t>
   </si>
   <si>
     <t xml:space="preserve"> strongest_claimant_ITA:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YItalien§! hat den stärksten Anspruch</t>
+    <t xml:space="preserve">§Y§Y Italien §!§!  hat den stärksten Anspruch</t>
   </si>
   <si>
     <t xml:space="preserve"> strongest_claimant_HUN:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YUngarn§! hat den stärksten Anspruch</t>
+    <t xml:space="preserve">§Y§Y Ungarn §!§!  hat den stärksten Anspruch</t>
   </si>
 </sst>
 </file>
@@ -5444,8 +5444,8 @@
   </sheetPr>
   <dimension ref="A1:D907"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D907" activeCellId="0" sqref="D1:D907"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8900,15 +8900,15 @@
       <c r="B217" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C217" s="1" t="str">
+      <c r="C217" s="3" t="str">
         <f aca="false">A217 &amp;" " &amp;"""" &amp;B217 &amp;""""</f>
         <v> DOD_hungary.68.desc: "Beide Seiten haben uns gebeten, eine Entscheidung zu fällen, wer Siebenbürgen bekommt. Das Außenministerium hat folgende Analyse vorbereitet:\n\n\"Es wäre in der momentanen Lage nicht ratsam, ganz Siebenbürgen einer Seite zuzusprechen. Um nicht eine der Seiten zu beleidigen und zu riskieren, dass sie die Entscheidung nicht akzeptiert, ist eine Kompromisslösung vorzuziehen. Diese ist zwar bei beiden Seiten unbeliebt, wird aber von beiden akzeptiert werden.\"
- DOD_hungary.68.a:_x005F_x0001_"Ganz Siebenbürgen Ungarn zusprechen."</v>
-      </c>
-      <c r="D217" s="1" t="str">
+ DOD_hungary.68.a:_x0001_"Ganz Siebenbürgen Ungarn zusprechen."</v>
+      </c>
+      <c r="D217" s="3" t="str">
         <f aca="false">IF(ISBLANK(A217),"",C217)</f>
         <v> DOD_hungary.68.desc: "Beide Seiten haben uns gebeten, eine Entscheidung zu fällen, wer Siebenbürgen bekommt. Das Außenministerium hat folgende Analyse vorbereitet:\n\n\"Es wäre in der momentanen Lage nicht ratsam, ganz Siebenbürgen einer Seite zuzusprechen. Um nicht eine der Seiten zu beleidigen und zu riskieren, dass sie die Entscheidung nicht akzeptiert, ist eine Kompromisslösung vorzuziehen. Diese ist zwar bei beiden Seiten unbeliebt, wird aber von beiden akzeptiert werden.\"
- DOD_hungary.68.a:_x005F_x0001_"Ganz Siebenbürgen Ungarn zusprechen."</v>
+ DOD_hungary.68.a:_x0001_"Ganz Siebenbürgen Ungarn zusprechen."</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16197,11 +16197,11 @@
       </c>
       <c r="C673" s="1" t="str">
         <f aca="false">A673 &amp;" " &amp;"""" &amp;B673 &amp;""""</f>
-        <v> DOD_yugoslavia.1.a.tt: "§YPeter II.§! wird Anführer der §Y[YUG.GetIdeologyNameWithCaps]en§! Partei.\n"</v>
+        <v> DOD_yugoslavia.1.a.tt: "§Y§Y Peter II. §!§!  wird Anführer der §Y§Y [YUG.GetIdeologyNameWithCaps]en §!§!  Partei.\n"</v>
       </c>
       <c r="D673" s="1" t="str">
         <f aca="false">IF(ISBLANK(A673),"",C673)</f>
-        <v> DOD_yugoslavia.1.a.tt: "§YPeter II.§! wird Anführer der §Y[YUG.GetIdeologyNameWithCaps]en§! Partei.\n"</v>
+        <v> DOD_yugoslavia.1.a.tt: "§Y§Y Peter II. §!§!  wird Anführer der §Y§Y [YUG.GetIdeologyNameWithCaps]en §!§!  Partei.\n"</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19893,11 +19893,11 @@
       </c>
       <c r="C904" s="1" t="str">
         <f aca="false">A904 &amp;" " &amp;"""" &amp;B904 &amp;""""</f>
-        <v> strongest_claimant_ROM: "§YRumänien§! hat den stärksten Anspruch"</v>
+        <v> strongest_claimant_ROM: "§Y§Y Rumänien §!§!  hat den stärksten Anspruch"</v>
       </c>
       <c r="D904" s="1" t="str">
         <f aca="false">IF(ISBLANK(A904),"",C904)</f>
-        <v> strongest_claimant_ROM: "§YRumänien§! hat den stärksten Anspruch"</v>
+        <v> strongest_claimant_ROM: "§Y§Y Rumänien §!§!  hat den stärksten Anspruch"</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19909,11 +19909,11 @@
       </c>
       <c r="C905" s="1" t="str">
         <f aca="false">A905 &amp;" " &amp;"""" &amp;B905 &amp;""""</f>
-        <v> strongest_claimant_GER: "§YDeutschland§! hat den stärksten Anspruch"</v>
+        <v> strongest_claimant_GER: "§Y§Y Deutschland §!§!  hat den stärksten Anspruch"</v>
       </c>
       <c r="D905" s="1" t="str">
         <f aca="false">IF(ISBLANK(A905),"",C905)</f>
-        <v> strongest_claimant_GER: "§YDeutschland§! hat den stärksten Anspruch"</v>
+        <v> strongest_claimant_GER: "§Y§Y Deutschland §!§!  hat den stärksten Anspruch"</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19925,11 +19925,11 @@
       </c>
       <c r="C906" s="1" t="str">
         <f aca="false">A906 &amp;" " &amp;"""" &amp;B906 &amp;""""</f>
-        <v> strongest_claimant_ITA: "§YItalien§! hat den stärksten Anspruch"</v>
+        <v> strongest_claimant_ITA: "§Y§Y Italien §!§!  hat den stärksten Anspruch"</v>
       </c>
       <c r="D906" s="1" t="str">
         <f aca="false">IF(ISBLANK(A906),"",C906)</f>
-        <v> strongest_claimant_ITA: "§YItalien§! hat den stärksten Anspruch"</v>
+        <v> strongest_claimant_ITA: "§Y§Y Italien §!§!  hat den stärksten Anspruch"</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19941,11 +19941,11 @@
       </c>
       <c r="C907" s="1" t="str">
         <f aca="false">A907 &amp;" " &amp;"""" &amp;B907 &amp;""""</f>
-        <v> strongest_claimant_HUN: "§YUngarn§! hat den stärksten Anspruch"</v>
+        <v> strongest_claimant_HUN: "§Y§Y Ungarn §!§!  hat den stärksten Anspruch"</v>
       </c>
       <c r="D907" s="1" t="str">
         <f aca="false">IF(ISBLANK(A907),"",C907)</f>
-        <v> strongest_claimant_HUN: "§YUngarn§! hat den stärksten Anspruch"</v>
+        <v> strongest_claimant_HUN: "§Y§Y Ungarn §!§!  hat den stärksten Anspruch"</v>
       </c>
     </row>
   </sheetData>
